--- a/adapterFPix2DTBTestProtocol_SN012.xlsx
+++ b/adapterFPix2DTBTestProtocol_SN012.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Final decision:</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>1) Do not connect the adapter. Turn HV on, read after 60 sec</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Frank Meier</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1236,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1255,12 +1255,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="32">
@@ -1272,11 +1272,11 @@
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>47</v>
@@ -1284,17 +1284,17 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="31">
         <v>23070432</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="27">
         <v>0.1</v>
@@ -1305,11 +1305,11 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="31">
         <v>26</v>
@@ -1317,11 +1317,11 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="31">
         <v>1268080</v>
@@ -2841,7 +2841,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2858,12 +2858,12 @@
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
       <c r="M57" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2874,22 +2874,22 @@
         <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
       <c r="M58" s="31" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="I59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
       <c r="M59" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -2897,7 +2897,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18">
@@ -2913,7 +2913,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2924,34 +2924,34 @@
         <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" s="25"/>
       <c r="K65" s="17"/>
     </row>
     <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K66" s="33">
         <v>99</v>
       </c>
       <c r="L66" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M66" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K67" s="33">
         <v>9.8800000000000008</v>
@@ -2960,29 +2960,29 @@
         <v>45</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="I69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K69" s="34">
         <f>102000*K67*0.000001</f>
         <v>1.00776</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="25">
         <v>0.04</v>
@@ -2991,12 +2991,12 @@
         <v>45</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="25">
         <v>0.04</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="25">
         <f>C71-C70</f>
@@ -3026,14 +3026,14 @@
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K72" s="19">
         <f>K66+K69</f>
         <v>100.00776</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3065,18 +3065,22 @@
       <c r="B78" s="14"/>
       <c r="C78" s="23" t="str">
         <f>IF(AND(B53="PASS",B60="PASS",B75="PASS",M57="y",M58="y",M59="y"),"ACCEPTED","REJECTED")</f>
-        <v>REJECTED</v>
+        <v>ACCEPTED</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="27"/>
+      <c r="B80" s="27" t="s">
+        <v>100</v>
+      </c>
       <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35"/>
+      <c r="F80" s="35">
+        <v>41836</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
